--- a/Appendix/Risk Assesment/RiskAssesmentReport.xlsx
+++ b/Appendix/Risk Assesment/RiskAssesmentReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Industrial Team Proj\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23020" windowHeight="8500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,15 +565,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="140.109375" customWidth="1"/>
-    <col min="7" max="7" width="173.44140625" customWidth="1"/>
+    <col min="6" max="6" width="140.1640625" customWidth="1"/>
+    <col min="7" max="7" width="173.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -638,7 +644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -662,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -686,7 +692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -710,7 +716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -734,7 +740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -758,7 +764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,7 +788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -806,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -830,7 +836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -854,7 +860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -878,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -902,7 +908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -926,7 +932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -950,7 +956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -974,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1046,15 +1052,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G20">
     <sortCondition descending="1" ref="D2:D20"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1064,9 +1076,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1076,8 +1095,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>